--- a/Endpoints.xlsx
+++ b/Endpoints.xlsx
@@ -177,12 +177,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -221,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -254,6 +260,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,7 +599,7 @@
   <dimension ref="A2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,22 +638,22 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -880,22 +892,22 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="13" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Endpoints.xlsx
+++ b/Endpoints.xlsx
@@ -91,12 +91,6 @@
     <t>Allowed operations on Room resourse</t>
   </si>
   <si>
-    <t>/rooms/{dateRange}</t>
-  </si>
-  <si>
-    <t>/rooms/{categoryId}</t>
-  </si>
-  <si>
     <t>Status: 200
 Body:Room List</t>
   </si>
@@ -152,6 +146,13 @@
   </si>
   <si>
     <t>Retrieves all available options</t>
+  </si>
+  <si>
+    <t>/rooms/dates/
+{from}/{to}</t>
+  </si>
+  <si>
+    <t>/rooms/{id}</t>
   </si>
 </sst>
 </file>
@@ -599,7 +600,7 @@
   <dimension ref="A2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,42 +659,42 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -736,43 +737,43 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="E10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -785,7 +786,7 @@
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -818,19 +819,19 @@
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -838,19 +839,19 @@
         <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -858,19 +859,19 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -883,7 +884,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -896,19 +897,19 @@
         <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">

--- a/Endpoints.xlsx
+++ b/Endpoints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27795" windowHeight="12330"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="27795" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,12 +243,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -266,6 +266,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -600,7 +606,7 @@
   <dimension ref="A2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,23 +704,23 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="7" spans="1:6" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -737,62 +743,62 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -815,82 +821,82 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
@@ -913,84 +919,84 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Endpoints.xlsx
+++ b/Endpoints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="27795" windowHeight="12270"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="27795" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>/bookings</t>
   </si>
   <si>
-    <t>/bookings/{userId}</t>
-  </si>
-  <si>
     <t xml:space="preserve">Status: 200
 Body:bookings List </t>
   </si>
@@ -153,6 +150,10 @@
   </si>
   <si>
     <t>/rooms/{id}</t>
+  </si>
+  <si>
+    <t>/bookings/
+user/{userId}</t>
   </si>
 </sst>
 </file>
@@ -605,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,42 +744,42 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -831,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>10</v>
@@ -844,20 +845,20 @@
       <c r="A16" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>28</v>
+      <c r="B16" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -868,16 +869,16 @@
         <v>27</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>32</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,7 +891,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -903,19 +904,19 @@
         <v>6</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">

--- a/Endpoints.xlsx
+++ b/Endpoints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="27795" windowHeight="12210"/>
+    <workbookView xWindow="480" yWindow="270" windowWidth="27795" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -179,18 +179,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -235,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -267,12 +261,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -606,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,62 +634,62 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -744,42 +732,42 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="12" t="s">
         <v>24</v>
       </c>
     </row>
@@ -900,22 +888,22 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Endpoints.xlsx
+++ b/Endpoints.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Endpoints.xlsx
+++ b/Endpoints.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="270" windowWidth="27795" windowHeight="12150"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="21825" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0" refMode="R1C1"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -594,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
